--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RestAssuredFramework\RestAssuredAutomationFramework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4059BD2-B567-46E3-998B-32182384D43D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD516E9-90F1-42C4-A7D9-997003DD3C93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,17 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>UserName</t>
   </si>
   <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -57,24 +51,6 @@
     <t>user3</t>
   </si>
   <si>
-    <t>Reema</t>
-  </si>
-  <si>
-    <t>Seeta</t>
-  </si>
-  <si>
-    <t>Radha</t>
-  </si>
-  <si>
-    <t>Deshmukh</t>
-  </si>
-  <si>
-    <t>Kale</t>
-  </si>
-  <si>
-    <t>Bhosale</t>
-  </si>
-  <si>
     <t>abc@gmail.com</t>
   </si>
   <si>
@@ -91,28 +67,13 @@
   </si>
   <si>
     <t>test@3</t>
-  </si>
-  <si>
-    <t>user4</t>
-  </si>
-  <si>
-    <t>Shivani</t>
-  </si>
-  <si>
-    <t>Sharma</t>
-  </si>
-  <si>
-    <t>str@gmail.com</t>
-  </si>
-  <si>
-    <t>test@4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,16 +96,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -152,30 +126,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -458,147 +441,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2">
+        <v>9921345665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2">
+        <v>9867543462</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="1">
-        <v>9921345665</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1">
-        <v>9867543462</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="E4" s="2">
         <v>9234567865</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="1">
-        <v>9987563432</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{8C23AD65-6FBE-41B4-9E2A-DA3F46FD375F}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{2181D42E-408C-44B9-B52D-9E8B3D983234}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{458058F4-1013-42CD-8C11-F5DF9C59BE8B}"/>
-    <hyperlink ref="F2" r:id="rId4" xr:uid="{6C0C30F7-3AF0-4427-945A-C4FBD83DB802}"/>
-    <hyperlink ref="F3:F4" r:id="rId5" display="test@1" xr:uid="{865EB61F-00CE-4D66-9C98-470445891F01}"/>
-    <hyperlink ref="E5" r:id="rId6" xr:uid="{A46BC389-BA86-457E-8459-814C8C25C718}"/>
-    <hyperlink ref="F5" r:id="rId7" xr:uid="{B4D52D0E-EAB2-4577-9FA2-3DB942C14D96}"/>
+    <hyperlink ref="E3:E4" r:id="rId1" display="test@1" xr:uid="{865EB61F-00CE-4D66-9C98-470445891F01}"/>
+    <hyperlink ref="E2" r:id="rId2" display="test@1" xr:uid="{6C0C30F7-3AF0-4427-945A-C4FBD83DB802}"/>
+    <hyperlink ref="D4" r:id="rId3" display="pqr@gmail.com" xr:uid="{458058F4-1013-42CD-8C11-F5DF9C59BE8B}"/>
+    <hyperlink ref="D3" r:id="rId4" display="xyz@gmail.com" xr:uid="{2181D42E-408C-44B9-B52D-9E8B3D983234}"/>
+    <hyperlink ref="D2" r:id="rId5" display="abc@gmail.com" xr:uid="{8C23AD65-6FBE-41B4-9E2A-DA3F46FD375F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RestAssuredFramework\RestAssuredAutomationFramework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD516E9-90F1-42C4-A7D9-997003DD3C93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBB9CDC-17D4-4850-A73B-B49BFFEC8649}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>UserName</t>
   </si>
@@ -51,22 +51,46 @@
     <t>user3</t>
   </si>
   <si>
-    <t>abc@gmail.com</t>
-  </si>
-  <si>
-    <t>xyz@gmail.com</t>
-  </si>
-  <si>
-    <t>pqr@gmail.com</t>
-  </si>
-  <si>
-    <t>test@1</t>
-  </si>
-  <si>
-    <t>test@2</t>
-  </si>
-  <si>
-    <t>test@3</t>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Shivani</t>
+  </si>
+  <si>
+    <t>Vaishali</t>
+  </si>
+  <si>
+    <t>Vrushali</t>
+  </si>
+  <si>
+    <t>Pisal</t>
+  </si>
+  <si>
+    <t>Shinde</t>
+  </si>
+  <si>
+    <t>Pawar</t>
+  </si>
+  <si>
+    <t>Shivani@123</t>
+  </si>
+  <si>
+    <t>shivani@gmail.com</t>
+  </si>
+  <si>
+    <t>vaishali@gmail.com</t>
+  </si>
+  <si>
+    <t>vrushali@gmail.com</t>
+  </si>
+  <si>
+    <t>Vaishali@124</t>
+  </si>
+  <si>
+    <t>Vrushali@125</t>
   </si>
 </sst>
 </file>
@@ -146,7 +170,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -157,7 +181,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -441,20 +468,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="2" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -462,75 +489,103 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>2021</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2">
         <v>9921345665</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>2022</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2">
         <v>9867543462</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>2023</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2">
         <v>9234567865</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3:E4" r:id="rId1" display="test@1" xr:uid="{865EB61F-00CE-4D66-9C98-470445891F01}"/>
-    <hyperlink ref="E2" r:id="rId2" display="test@1" xr:uid="{6C0C30F7-3AF0-4427-945A-C4FBD83DB802}"/>
-    <hyperlink ref="D4" r:id="rId3" display="pqr@gmail.com" xr:uid="{458058F4-1013-42CD-8C11-F5DF9C59BE8B}"/>
-    <hyperlink ref="D3" r:id="rId4" display="xyz@gmail.com" xr:uid="{2181D42E-408C-44B9-B52D-9E8B3D983234}"/>
-    <hyperlink ref="D2" r:id="rId5" display="abc@gmail.com" xr:uid="{8C23AD65-6FBE-41B4-9E2A-DA3F46FD375F}"/>
+    <hyperlink ref="G3:G4" r:id="rId1" display="test@1" xr:uid="{865EB61F-00CE-4D66-9C98-470445891F01}"/>
+    <hyperlink ref="G2" r:id="rId2" display="test@1" xr:uid="{6C0C30F7-3AF0-4427-945A-C4FBD83DB802}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{39F49CBE-0FCD-49E8-8282-15D4B6C197A6}"/>
+    <hyperlink ref="E2" r:id="rId4" xr:uid="{1F79A774-9169-4632-87FE-FFAA6E241F48}"/>
+    <hyperlink ref="E3" r:id="rId5" xr:uid="{94A8BF7E-8706-4CF7-971E-410EFDF2300B}"/>
+    <hyperlink ref="E4" r:id="rId6" xr:uid="{6B37F5B4-B96A-4498-BD9F-EA6CCB5D5BD8}"/>
+    <hyperlink ref="F3:F4" r:id="rId7" display="Shivani@123" xr:uid="{AAA06F00-5F41-4A5F-9894-E7668BA2A41D}"/>
+    <hyperlink ref="F3" r:id="rId8" xr:uid="{1E342E9F-34FE-44C4-9C2F-343167672170}"/>
+    <hyperlink ref="F4" r:id="rId9" xr:uid="{27C8BA75-D0FF-43EF-B40D-EEF277CC6433}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>